--- a/scripts_graf/info_tecnico.xlsx
+++ b/scripts_graf/info_tecnico.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="54">
   <si>
     <t>N_sujeto</t>
   </si>
@@ -59,24 +59,6 @@
   </si>
   <si>
     <t>Dur_epoca</t>
-  </si>
-  <si>
-    <t>hh_0</t>
-  </si>
-  <si>
-    <t>mm_0</t>
-  </si>
-  <si>
-    <t>ss_0</t>
-  </si>
-  <si>
-    <t>hh_f</t>
-  </si>
-  <si>
-    <t>mm_f</t>
-  </si>
-  <si>
-    <t>ss_f</t>
   </si>
   <si>
     <t>VCR</t>
@@ -197,6 +179,12 @@
   </si>
   <si>
     <t>PCM90SUE</t>
+  </si>
+  <si>
+    <t>hh_ff</t>
+  </si>
+  <si>
+    <t>mm_ff</t>
   </si>
 </sst>
 </file>
@@ -1506,10 +1494,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:R15"/>
+  <dimension ref="A1:N15"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H14" sqref="H14"/>
+      <selection activeCell="N16" sqref="N16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1527,14 +1515,10 @@
     <col min="12" max="12" width="10" style="1"/>
     <col min="13" max="13" width="4.85546875"/>
     <col min="14" max="14" width="6.140625"/>
-    <col min="15" max="15" width="4.28515625"/>
-    <col min="16" max="16" width="4.5703125"/>
-    <col min="17" max="17" width="6.140625"/>
-    <col min="18" max="18" width="4"/>
-    <col min="19" max="1025" width="8.28515625"/>
+    <col min="15" max="1021" width="8.28515625"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" s="4" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:14" s="4" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1572,33 +1556,21 @@
         <v>11</v>
       </c>
       <c r="M1" s="2" t="s">
-        <v>12</v>
+        <v>52</v>
       </c>
       <c r="N1" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="O1" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="P1" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="Q1" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="R1" s="2" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.25">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2" s="5">
         <v>1</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="D2" s="6">
         <v>59</v>
@@ -1616,10 +1588,10 @@
         <v>0</v>
       </c>
       <c r="I2" s="5" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="J2" s="5" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="K2" s="8">
         <v>200</v>
@@ -1627,34 +1599,18 @@
       <c r="L2" s="6">
         <v>10</v>
       </c>
-      <c r="M2" s="5">
-        <v>1</v>
-      </c>
-      <c r="N2" s="5">
-        <v>53</v>
-      </c>
-      <c r="O2" s="5">
-        <v>0</v>
-      </c>
-      <c r="P2" s="5">
-        <v>2</v>
-      </c>
-      <c r="Q2" s="5">
-        <v>44</v>
-      </c>
-      <c r="R2" s="5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="M2" s="5"/>
+      <c r="N2" s="5"/>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A3" s="9">
         <v>17</v>
       </c>
       <c r="B3" s="9" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="C3" s="10" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="D3" s="10">
         <v>72</v>
@@ -1672,10 +1628,10 @@
         <v>0</v>
       </c>
       <c r="I3" s="9" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="J3" s="9" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="K3" s="10">
         <v>512</v>
@@ -1684,33 +1640,21 @@
         <v>30</v>
       </c>
       <c r="M3" s="9">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="N3" s="9">
-        <v>25</v>
-      </c>
-      <c r="O3" s="9">
-        <v>30</v>
-      </c>
-      <c r="P3" s="9">
-        <v>1</v>
-      </c>
-      <c r="Q3" s="9">
         <v>36</v>
       </c>
-      <c r="R3" s="9">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A4" s="5">
         <v>19</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="D4" s="6">
         <v>78</v>
@@ -1728,10 +1672,10 @@
         <v>0</v>
       </c>
       <c r="I4" s="5" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="J4" s="5" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="K4" s="6">
         <v>512</v>
@@ -1740,33 +1684,21 @@
         <v>30</v>
       </c>
       <c r="M4" s="5">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="N4" s="5">
-        <v>48</v>
-      </c>
-      <c r="O4" s="5">
-        <v>0</v>
-      </c>
-      <c r="P4" s="5">
-        <v>1</v>
-      </c>
-      <c r="Q4" s="5">
-        <v>10</v>
-      </c>
-      <c r="R4" s="5">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.25">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A5" s="9">
         <v>44</v>
       </c>
       <c r="B5" s="9" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="C5" s="10" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="D5" s="10">
         <v>65</v>
@@ -1784,10 +1716,10 @@
         <v>0</v>
       </c>
       <c r="I5" s="9" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="J5" s="9" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="K5" s="8">
         <v>200</v>
@@ -1795,34 +1727,18 @@
       <c r="L5" s="10">
         <v>10</v>
       </c>
-      <c r="M5" s="9">
-        <v>3</v>
-      </c>
-      <c r="N5" s="9">
-        <v>11</v>
-      </c>
-      <c r="O5" s="9">
-        <v>30</v>
-      </c>
-      <c r="P5" s="9">
-        <v>3</v>
-      </c>
-      <c r="Q5" s="9">
-        <v>28</v>
-      </c>
-      <c r="R5" s="9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="M5" s="9"/>
+      <c r="N5" s="9"/>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A6" s="5">
         <v>26</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="C6" s="6" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="D6" s="6">
         <v>67</v>
@@ -1840,10 +1756,10 @@
         <v>0</v>
       </c>
       <c r="I6" s="5" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="J6" s="5" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="K6" s="8">
         <v>200</v>
@@ -1851,34 +1767,18 @@
       <c r="L6" s="6">
         <v>10</v>
       </c>
-      <c r="M6" s="5">
-        <v>2</v>
-      </c>
-      <c r="N6" s="5">
-        <v>11</v>
-      </c>
-      <c r="O6" s="5">
-        <v>30</v>
-      </c>
-      <c r="P6" s="5">
-        <v>2</v>
-      </c>
-      <c r="Q6" s="5">
-        <v>23</v>
-      </c>
-      <c r="R6" s="5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="M6" s="5"/>
+      <c r="N6" s="5"/>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A7" s="12">
         <v>9</v>
       </c>
       <c r="B7" s="12" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="C7" s="13" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="D7" s="13">
         <v>68</v>
@@ -1896,10 +1796,10 @@
         <v>1</v>
       </c>
       <c r="I7" s="12" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="J7" s="12" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="K7" s="13">
         <v>512</v>
@@ -1908,33 +1808,21 @@
         <v>30</v>
       </c>
       <c r="M7" s="12">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="N7" s="12">
-        <v>17</v>
-      </c>
-      <c r="O7" s="12">
-        <v>0</v>
-      </c>
-      <c r="P7" s="12">
-        <v>1</v>
-      </c>
-      <c r="Q7" s="12">
-        <v>28</v>
-      </c>
-      <c r="R7" s="12">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.25">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A8" s="16">
         <v>10</v>
       </c>
       <c r="B8" s="16" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="C8" s="17" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="D8" s="17">
         <v>63</v>
@@ -1952,10 +1840,10 @@
         <v>1</v>
       </c>
       <c r="I8" s="16" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="J8" s="16" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="K8" s="17">
         <v>512</v>
@@ -1964,33 +1852,21 @@
         <v>30</v>
       </c>
       <c r="M8" s="16">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="N8" s="16">
-        <v>55</v>
-      </c>
-      <c r="O8" s="16">
         <v>0</v>
       </c>
-      <c r="P8" s="16">
-        <v>2</v>
-      </c>
-      <c r="Q8" s="16">
-        <v>6</v>
-      </c>
-      <c r="R8" s="16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.25">
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A9" s="12">
         <v>2</v>
       </c>
       <c r="B9" s="12" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="C9" s="13" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="D9" s="13">
         <v>69</v>
@@ -2008,10 +1884,10 @@
         <v>1</v>
       </c>
       <c r="I9" s="12" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="J9" s="12" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="K9" s="8">
         <v>200</v>
@@ -2019,34 +1895,18 @@
       <c r="L9" s="13">
         <v>10</v>
       </c>
-      <c r="M9" s="12">
-        <v>1</v>
-      </c>
-      <c r="N9" s="12">
-        <v>50</v>
-      </c>
-      <c r="O9" s="12">
-        <v>30</v>
-      </c>
-      <c r="P9" s="12">
-        <v>2</v>
-      </c>
-      <c r="Q9" s="12">
-        <v>1</v>
-      </c>
-      <c r="R9" s="12">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="M9" s="12"/>
+      <c r="N9" s="12"/>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A10" s="16">
         <v>6</v>
       </c>
       <c r="B10" s="16" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="C10" s="17" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="D10" s="17">
         <v>65</v>
@@ -2064,10 +1924,10 @@
         <v>1</v>
       </c>
       <c r="I10" s="16" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="J10" s="16" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="K10" s="17">
         <v>512</v>
@@ -2076,33 +1936,21 @@
         <v>30</v>
       </c>
       <c r="M10" s="16">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="N10" s="16">
-        <v>58</v>
-      </c>
-      <c r="O10" s="16">
         <v>0</v>
       </c>
-      <c r="P10" s="16">
-        <v>3</v>
-      </c>
-      <c r="Q10" s="16">
-        <v>9</v>
-      </c>
-      <c r="R10" s="16">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.25">
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A11" s="12">
         <v>83</v>
       </c>
       <c r="B11" s="12" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="C11" s="13" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="D11" s="13">
         <v>73</v>
@@ -2120,10 +1968,10 @@
         <v>1</v>
       </c>
       <c r="I11" s="12" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="J11" s="12" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="K11" s="13">
         <v>512</v>
@@ -2132,33 +1980,21 @@
         <v>30</v>
       </c>
       <c r="M11" s="12">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="N11" s="12">
-        <v>50</v>
-      </c>
-      <c r="O11" s="12">
-        <v>30</v>
-      </c>
-      <c r="P11" s="12">
-        <v>5</v>
-      </c>
-      <c r="Q11" s="12">
-        <v>5</v>
-      </c>
-      <c r="R11" s="12">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.25">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A12" s="19">
         <v>31</v>
       </c>
       <c r="B12" s="19" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="C12" s="20" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="D12" s="20">
         <v>71</v>
@@ -2176,10 +2012,10 @@
         <v>-1</v>
       </c>
       <c r="I12" s="19" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="J12" s="19" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="K12" s="20">
         <v>512</v>
@@ -2187,34 +2023,18 @@
       <c r="L12" s="20">
         <v>30</v>
       </c>
-      <c r="M12" s="19">
-        <v>2</v>
-      </c>
-      <c r="N12" s="19">
-        <v>12</v>
-      </c>
-      <c r="O12" s="19">
-        <v>0</v>
-      </c>
-      <c r="P12" s="19">
-        <v>2</v>
-      </c>
-      <c r="Q12" s="19">
-        <v>25</v>
-      </c>
-      <c r="R12" s="19">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="M12" s="19"/>
+      <c r="N12" s="19"/>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A13" s="23">
         <v>5</v>
       </c>
       <c r="B13" s="23" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="C13" s="24" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="D13" s="24">
         <v>61</v>
@@ -2232,10 +2052,10 @@
         <v>0</v>
       </c>
       <c r="I13" s="23" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="J13" s="23" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="K13" s="24">
         <v>512</v>
@@ -2244,33 +2064,21 @@
         <v>30</v>
       </c>
       <c r="M13" s="23">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="N13" s="23">
-        <v>53</v>
-      </c>
-      <c r="O13" s="23">
-        <v>0</v>
-      </c>
-      <c r="P13" s="23">
-        <v>3</v>
-      </c>
-      <c r="Q13" s="23">
-        <v>25</v>
-      </c>
-      <c r="R13" s="23">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.25">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A14" s="19">
         <v>25</v>
       </c>
       <c r="B14" s="19" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="C14" s="20" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="D14" s="20">
         <v>50</v>
@@ -2288,10 +2096,10 @@
         <v>0</v>
       </c>
       <c r="I14" s="19" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="J14" s="19" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="K14" s="20">
         <v>512</v>
@@ -2300,33 +2108,21 @@
         <v>30</v>
       </c>
       <c r="M14" s="19">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="N14" s="19">
-        <v>35</v>
-      </c>
-      <c r="O14" s="19">
-        <v>0</v>
-      </c>
-      <c r="P14" s="19">
-        <v>1</v>
-      </c>
-      <c r="Q14" s="19">
-        <v>50</v>
-      </c>
-      <c r="R14" s="19">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.25">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A15" s="26">
         <v>99</v>
       </c>
       <c r="B15" s="26" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="C15" s="27" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="D15" s="27">
         <v>71</v>
@@ -2344,10 +2140,10 @@
         <v>1</v>
       </c>
       <c r="I15" s="26" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="J15" s="26" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="K15" s="27">
         <v>512</v>
@@ -2356,22 +2152,10 @@
         <v>30</v>
       </c>
       <c r="M15" s="26">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="N15" s="26">
-        <v>3</v>
-      </c>
-      <c r="O15" s="26">
-        <v>30</v>
-      </c>
-      <c r="P15" s="26">
-        <v>1</v>
-      </c>
-      <c r="Q15" s="26">
-        <v>14</v>
-      </c>
-      <c r="R15" s="26">
-        <v>30</v>
+        <v>16</v>
       </c>
     </row>
   </sheetData>
@@ -2396,46 +2180,46 @@
   <sheetData>
     <row r="1" spans="1:14" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A1" s="29" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="B1" s="30" t="s">
+        <v>16</v>
+      </c>
+      <c r="C1" s="29" t="s">
+        <v>19</v>
+      </c>
+      <c r="D1" s="30" t="s">
         <v>22</v>
       </c>
-      <c r="C1" s="29" t="s">
-        <v>25</v>
-      </c>
-      <c r="D1" s="30" t="s">
-        <v>28</v>
-      </c>
       <c r="E1" s="29" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="F1" s="31" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="G1" s="32" t="s">
+        <v>31</v>
+      </c>
+      <c r="H1" s="31" t="s">
+        <v>34</v>
+      </c>
+      <c r="I1" s="32" t="s">
         <v>37</v>
       </c>
-      <c r="H1" s="31" t="s">
-        <v>40</v>
-      </c>
-      <c r="I1" s="32" t="s">
-        <v>43</v>
-      </c>
       <c r="J1" s="31" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="K1" s="33" t="s">
+        <v>41</v>
+      </c>
+      <c r="L1" s="34" t="s">
+        <v>44</v>
+      </c>
+      <c r="M1" s="33" t="s">
         <v>47</v>
       </c>
-      <c r="L1" s="34" t="s">
+      <c r="N1" s="35" t="s">
         <v>50</v>
-      </c>
-      <c r="M1" s="33" t="s">
-        <v>53</v>
-      </c>
-      <c r="N1" s="35" t="s">
-        <v>56</v>
       </c>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.25">
@@ -2900,46 +2684,46 @@
   <sheetData>
     <row r="1" spans="1:14" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A1" s="29" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="B1" s="30" t="s">
+        <v>16</v>
+      </c>
+      <c r="C1" s="29" t="s">
+        <v>19</v>
+      </c>
+      <c r="D1" s="30" t="s">
         <v>22</v>
       </c>
-      <c r="C1" s="29" t="s">
-        <v>25</v>
-      </c>
-      <c r="D1" s="30" t="s">
-        <v>28</v>
-      </c>
       <c r="E1" s="29" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="F1" s="31" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="G1" s="32" t="s">
+        <v>31</v>
+      </c>
+      <c r="H1" s="31" t="s">
+        <v>34</v>
+      </c>
+      <c r="I1" s="32" t="s">
         <v>37</v>
       </c>
-      <c r="H1" s="31" t="s">
-        <v>40</v>
-      </c>
-      <c r="I1" s="32" t="s">
-        <v>43</v>
-      </c>
       <c r="J1" s="31" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="K1" s="33" t="s">
+        <v>41</v>
+      </c>
+      <c r="L1" s="34" t="s">
+        <v>44</v>
+      </c>
+      <c r="M1" s="33" t="s">
         <v>47</v>
       </c>
-      <c r="L1" s="34" t="s">
+      <c r="N1" s="35" t="s">
         <v>50</v>
-      </c>
-      <c r="M1" s="33" t="s">
-        <v>53</v>
-      </c>
-      <c r="N1" s="35" t="s">
-        <v>56</v>
       </c>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.25">
@@ -4287,46 +4071,46 @@
   <sheetData>
     <row r="1" spans="1:14" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A1" s="29" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="B1" s="30" t="s">
+        <v>16</v>
+      </c>
+      <c r="C1" s="29" t="s">
+        <v>19</v>
+      </c>
+      <c r="D1" s="30" t="s">
         <v>22</v>
       </c>
-      <c r="C1" s="29" t="s">
-        <v>25</v>
-      </c>
-      <c r="D1" s="30" t="s">
-        <v>28</v>
-      </c>
       <c r="E1" s="29" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="F1" s="31" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="G1" s="32" t="s">
+        <v>31</v>
+      </c>
+      <c r="H1" s="31" t="s">
+        <v>34</v>
+      </c>
+      <c r="I1" s="32" t="s">
         <v>37</v>
       </c>
-      <c r="H1" s="31" t="s">
-        <v>40</v>
-      </c>
-      <c r="I1" s="32" t="s">
-        <v>43</v>
-      </c>
       <c r="J1" s="31" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="K1" s="33" t="s">
+        <v>41</v>
+      </c>
+      <c r="L1" s="34" t="s">
+        <v>44</v>
+      </c>
+      <c r="M1" s="33" t="s">
         <v>47</v>
       </c>
-      <c r="L1" s="34" t="s">
+      <c r="N1" s="35" t="s">
         <v>50</v>
-      </c>
-      <c r="M1" s="33" t="s">
-        <v>53</v>
-      </c>
-      <c r="N1" s="35" t="s">
-        <v>56</v>
       </c>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.25">
@@ -9752,46 +9536,46 @@
   <sheetData>
     <row r="1" spans="1:14" ht="23.25" x14ac:dyDescent="0.25">
       <c r="A1" s="72" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="B1" s="73" t="s">
+        <v>16</v>
+      </c>
+      <c r="C1" s="74" t="s">
+        <v>19</v>
+      </c>
+      <c r="D1" s="75" t="s">
         <v>22</v>
       </c>
-      <c r="C1" s="74" t="s">
-        <v>25</v>
-      </c>
-      <c r="D1" s="75" t="s">
-        <v>28</v>
-      </c>
       <c r="E1" s="76" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="F1" s="77" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="G1" s="78" t="s">
+        <v>31</v>
+      </c>
+      <c r="H1" s="77" t="s">
+        <v>34</v>
+      </c>
+      <c r="I1" s="79" t="s">
         <v>37</v>
       </c>
-      <c r="H1" s="77" t="s">
-        <v>40</v>
-      </c>
-      <c r="I1" s="79" t="s">
-        <v>43</v>
-      </c>
       <c r="J1" s="77" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="K1" s="80" t="s">
+        <v>41</v>
+      </c>
+      <c r="L1" s="81" t="s">
+        <v>44</v>
+      </c>
+      <c r="M1" s="80" t="s">
         <v>47</v>
       </c>
-      <c r="L1" s="81" t="s">
+      <c r="N1" s="82" t="s">
         <v>50</v>
-      </c>
-      <c r="M1" s="80" t="s">
-        <v>53</v>
-      </c>
-      <c r="N1" s="82" t="s">
-        <v>56</v>
       </c>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.25">
